--- a/data/produits.xlsx
+++ b/data/produits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="153">
   <si>
     <t xml:space="preserve">nom_commercial</t>
   </si>
@@ -43,6 +43,219 @@
     <t xml:space="preserve">prix_public</t>
   </si>
   <si>
+    <t xml:space="preserve">ABAISSE LANGUE EN BOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B/100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACARILBIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzoate de benzyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLUTION USAGE EXTERNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/200ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCU-CHEK SOFCLIX LANCETTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLERGYL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prométhazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLACON 60ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMAX FORTE   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almagate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUDRE SACHETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1G/7.5ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSP BUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL/225ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTESUN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artésunate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM IV SOL INJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV SOL INJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTESUN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOL INJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTOME TM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artémether, luméfantrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15MG-90MG/5ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDRE SUSP BUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL/60 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOTRI DENK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clotrimazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T/20G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTYMIN SN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivamines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOL INJ PERF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACTYL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Céthexonium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLYRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL/10ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOBRADEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobramycine, Dexaméthasone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMMADE OPHTALMIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T/3,5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDE CREP LABELL CELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4M X 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDE CREPE COTON PHD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4MX5CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHARMADANICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDE CREPE COTON TETRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4M X 10 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TETRA MEDICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDE NYL EXT LABELL CELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3MX10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3MX7CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDELETTE ACCU CHEK ACTIVE    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDELETTE CODEFREE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B/2X25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIB RD POLY CARAMEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dBd REMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/270ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIB RD VER CIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/240ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALGESAL SURACTIVE </t>
   </si>
   <si>
@@ -52,15 +265,9 @@
     <t xml:space="preserve">6,54G/3,46G/1G</t>
   </si>
   <si>
-    <t xml:space="preserve">CREME</t>
-  </si>
-  <si>
     <t xml:space="preserve">T/40G</t>
   </si>
   <si>
-    <t xml:space="preserve">2 650</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALGESIC EXTRA</t>
   </si>
   <si>
@@ -76,27 +283,15 @@
     <t xml:space="preserve">BOITE/16</t>
   </si>
   <si>
-    <t xml:space="preserve">1 000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALLERGODIL  </t>
   </si>
   <si>
     <t xml:space="preserve">Azélastine</t>
   </si>
   <si>
-    <t xml:space="preserve">0,05 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLYRE</t>
-  </si>
-  <si>
     <t xml:space="preserve">F/6ML</t>
   </si>
   <si>
-    <t xml:space="preserve">5 025</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALVITYL </t>
   </si>
   <si>
@@ -109,9 +304,6 @@
     <t xml:space="preserve">FL/150ML</t>
   </si>
   <si>
-    <t xml:space="preserve">4 950</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALVITYL TONUS  </t>
   </si>
   <si>
@@ -121,9 +313,6 @@
     <t xml:space="preserve">BOITE/10</t>
   </si>
   <si>
-    <t xml:space="preserve">2 600</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMADAY</t>
   </si>
   <si>
@@ -139,9 +328,6 @@
     <t xml:space="preserve">BOITE/30</t>
   </si>
   <si>
-    <t xml:space="preserve">8 700</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMADAY </t>
   </si>
   <si>
@@ -151,9 +337,6 @@
     <t xml:space="preserve">10MG</t>
   </si>
   <si>
-    <t xml:space="preserve">7 000</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAPTOPRIL TM</t>
   </si>
   <si>
@@ -169,9 +352,6 @@
     <t xml:space="preserve">BOITE/100</t>
   </si>
   <si>
-    <t xml:space="preserve">4 250</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blister/20</t>
   </si>
   <si>
@@ -181,12 +361,6 @@
     <t xml:space="preserve">DENK PHARMA</t>
   </si>
   <si>
-    <t xml:space="preserve">B/100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 725</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAPICLAV</t>
   </si>
   <si>
@@ -199,9 +373,6 @@
     <t xml:space="preserve">B/21</t>
   </si>
   <si>
-    <t xml:space="preserve">4 100</t>
-  </si>
-  <si>
     <t xml:space="preserve">SOCLAV </t>
   </si>
   <si>
@@ -214,9 +385,6 @@
     <t xml:space="preserve">F/60ML</t>
   </si>
   <si>
-    <t xml:space="preserve">3 975</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARACETAMOL</t>
   </si>
   <si>
@@ -256,15 +424,9 @@
     <t xml:space="preserve">B/16</t>
   </si>
   <si>
-    <t xml:space="preserve">1 950</t>
-  </si>
-  <si>
     <t xml:space="preserve">EFFERALGAN PEDIATRIQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">3 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">F/90ML</t>
   </si>
   <si>
@@ -280,18 +442,12 @@
     <t xml:space="preserve">BOITE/8</t>
   </si>
   <si>
-    <t xml:space="preserve">16 000</t>
-  </si>
-  <si>
     <t xml:space="preserve">CEINT  LOMB PROGRESS H/F</t>
   </si>
   <si>
     <t xml:space="preserve">H26CM</t>
   </si>
   <si>
-    <t xml:space="preserve">32 400</t>
-  </si>
-  <si>
     <t xml:space="preserve">CEINT LOMB PROGRESS H/F NOIR TA</t>
   </si>
   <si>
@@ -316,9 +472,6 @@
     <t xml:space="preserve"> 2X85G</t>
   </si>
   <si>
-    <t xml:space="preserve">3 500</t>
-  </si>
-  <si>
     <t xml:space="preserve">LEUKOPLAST S  PERF</t>
   </si>
   <si>
@@ -326,265 +479,20 @@
   </si>
   <si>
     <t xml:space="preserve">1/4MX18CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAISSE LANGUE EN BOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACARILBIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzoate de benzyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLUTION USAGE EXTERNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F/200ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCU-CHEK SOFCLIX LANCETTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALLERGYL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prométhazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIROP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLACON 60ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALMAX FORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almagate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POUDRE SACHETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B/30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1G/7.5ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUSP BUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL/225ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTESUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artésunate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM IV SOL INJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV SOL INJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOL INJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTOME TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artémether, luméfantrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15MG-90MG/5ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDRE SUSP BUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL/60 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOTRI DENK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clotrimazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T/20G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTYMIN SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multivamines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOL INJ PERF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACTYL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Céthexonium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,03%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL/10ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOBRADEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobramycine, Dexaméthasone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POMMADE OPHTALMIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T/3,5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDE CREP LABELL CELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4M X 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDE CREPE COTON PHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4MX5CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHARMADANICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDE CREPE COTON TETRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4M X 10 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TETRA MEDICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDE NYL EXT LABELL CELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3MX10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3MX7CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDELETTE ACCU CHEK ACTIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDELETTE CODEFREE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B/2X25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIB RD POLY CARAMEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dBd REMOND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F/270ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIB RD VER CIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F/240ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -644,12 +552,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,19 +576,17 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,797 +616,797 @@
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
+      <c r="G2" s="0" t="n">
+        <v>838</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2600</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1424</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>432</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3002</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2093</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2083</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>656</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>850</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2048</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.01</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4696</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.00025</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>100</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1050</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>543</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>89</v>
+        <v>31</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>89</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>11181</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>10625</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>99</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>99</v>
+        <v>76</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>200</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>838</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>5025</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>432</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>120</v>
+        <v>96</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2600</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>8700</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>130</v>
+        <v>101</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>7000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>132</v>
+        <v>100</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>656</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>135</v>
+        <v>110</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>139</v>
+        <v>100</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>141</v>
+        <v>8</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>7725</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>146</v>
+        <v>116</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>4100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>148</v>
+        <v>114</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>150</v>
+        <v>120</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>3975</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>22</v>
+        <v>100</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>892</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>159</v>
+        <v>129</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>160</v>
+        <v>130</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>162</v>
+        <v>131</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>543</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>165</v>
+        <v>134</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>168</v>
+        <v>136</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>138</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>289</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>86</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>116</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>174</v>
+        <v>146</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>7000</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>175</v>
+        <v>147</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>177</v>
+        <v>149</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>3500</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>180</v>
+        <v>151</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>182</v>
+        <v>152</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
